--- a/0_Data/9_Supplementary Information/NAs_over_Observations_0.xlsx
+++ b/0_Data/9_Supplementary Information/NAs_over_Observations_0.xlsx
@@ -2260,10 +2260,10 @@
         <v>58</v>
       </c>
       <c r="C90" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D90" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -7020,10 +7020,10 @@
         <v>89</v>
       </c>
       <c r="C370" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D370" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E370" t="n">
         <v>1</v>
@@ -10913,10 +10913,10 @@
         <v>94</v>
       </c>
       <c r="C599" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D599" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E599" t="n">
         <v>1</v>
@@ -15537,13 +15537,13 @@
         <v>99</v>
       </c>
       <c r="C871" t="n">
-        <v>18670</v>
+        <v>18007</v>
       </c>
       <c r="D871" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E871" t="n">
-        <v>0.311400216829289</v>
+        <v>0.311060823299763</v>
       </c>
     </row>
     <row r="872">
@@ -16013,10 +16013,10 @@
         <v>101</v>
       </c>
       <c r="C899" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D899" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E899" t="n">
         <v>1</v>
@@ -17152,10 +17152,10 @@
         <v>102</v>
       </c>
       <c r="C966" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D966" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E966" t="n">
         <v>1</v>
@@ -18274,10 +18274,10 @@
         <v>103</v>
       </c>
       <c r="C1032" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1032" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1032" t="n">
         <v>1</v>
@@ -19005,10 +19005,10 @@
         <v>104</v>
       </c>
       <c r="C1075" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1075" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1075" t="n">
         <v>1</v>
@@ -20450,10 +20450,10 @@
         <v>106</v>
       </c>
       <c r="C1160" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1160" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1160" t="n">
         <v>1</v>
@@ -21844,10 +21844,10 @@
         <v>108</v>
       </c>
       <c r="C1242" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1242" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1242" t="n">
         <v>1</v>
@@ -22915,10 +22915,10 @@
         <v>109</v>
       </c>
       <c r="C1305" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1305" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1305" t="n">
         <v>1</v>
@@ -27471,10 +27471,10 @@
         <v>115</v>
       </c>
       <c r="C1573" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1573" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1573" t="n">
         <v>1</v>
@@ -28423,10 +28423,10 @@
         <v>116</v>
       </c>
       <c r="C1629" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1629" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1629" t="n">
         <v>1</v>
@@ -29409,10 +29409,10 @@
         <v>117</v>
       </c>
       <c r="C1687" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1687" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1687" t="n">
         <v>1</v>
@@ -30650,10 +30650,10 @@
         <v>119</v>
       </c>
       <c r="C1760" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1760" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1760" t="n">
         <v>1</v>
@@ -31721,10 +31721,10 @@
         <v>120</v>
       </c>
       <c r="C1823" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1823" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1823" t="n">
         <v>1</v>
@@ -32809,10 +32809,10 @@
         <v>121</v>
       </c>
       <c r="C1887" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1887" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1887" t="n">
         <v>1</v>
@@ -33761,10 +33761,10 @@
         <v>122</v>
       </c>
       <c r="C1943" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D1943" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E1943" t="n">
         <v>1</v>
@@ -35325,13 +35325,13 @@
         <v>124</v>
       </c>
       <c r="C2035" t="n">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="D2035" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E2035" t="n">
-        <v>0.0112250854807772</v>
+        <v>0.0114356786263366</v>
       </c>
     </row>
     <row r="2036">
@@ -35971,10 +35971,10 @@
         <v>125</v>
       </c>
       <c r="C2073" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D2073" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E2073" t="n">
         <v>1</v>
@@ -37773,10 +37773,10 @@
         <v>128</v>
       </c>
       <c r="C2179" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="D2179" t="n">
-        <v>59955</v>
+        <v>57889</v>
       </c>
       <c r="E2179" t="n">
         <v>1</v>
